--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.245608</v>
+        <v>0.3074763333333333</v>
       </c>
       <c r="H2">
-        <v>0.7368239999999999</v>
+        <v>0.9224289999999999</v>
       </c>
       <c r="I2">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="J2">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N2">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O2">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P2">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q2">
-        <v>0.5912690853519998</v>
+        <v>0.5062870457348888</v>
       </c>
       <c r="R2">
-        <v>5.321421768167999</v>
+        <v>4.556583411614</v>
       </c>
       <c r="S2">
-        <v>0.007935989294727819</v>
+        <v>0.004730591498825264</v>
       </c>
       <c r="T2">
-        <v>0.007935989294727821</v>
+        <v>0.004730591498825264</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.245608</v>
+        <v>0.3074763333333333</v>
       </c>
       <c r="H3">
-        <v>0.7368239999999999</v>
+        <v>0.9224289999999999</v>
       </c>
       <c r="I3">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="J3">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.032622</v>
       </c>
       <c r="O3">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P3">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q3">
-        <v>2.868097408058667</v>
+        <v>3.590567386537555</v>
       </c>
       <c r="R3">
-        <v>25.812876672528</v>
+        <v>32.315106478838</v>
       </c>
       <c r="S3">
-        <v>0.03849548520372882</v>
+        <v>0.03354916484197003</v>
       </c>
       <c r="T3">
-        <v>0.03849548520372883</v>
+        <v>0.03354916484197003</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.245608</v>
+        <v>0.3074763333333333</v>
       </c>
       <c r="H4">
-        <v>0.7368239999999999</v>
+        <v>0.9224289999999999</v>
       </c>
       <c r="I4">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="J4">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N4">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O4">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P4">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q4">
-        <v>0.7687788288399999</v>
+        <v>0.2322438440302222</v>
       </c>
       <c r="R4">
-        <v>6.91900945956</v>
+        <v>2.090194596272</v>
       </c>
       <c r="S4">
-        <v>0.01031851775584633</v>
+        <v>0.002170015534624533</v>
       </c>
       <c r="T4">
-        <v>0.01031851775584633</v>
+        <v>0.002170015534624533</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.245608</v>
+        <v>0.3074763333333333</v>
       </c>
       <c r="H5">
-        <v>0.7368239999999999</v>
+        <v>0.9224289999999999</v>
       </c>
       <c r="I5">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="J5">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N5">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O5">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P5">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q5">
-        <v>6.272789923282666</v>
+        <v>8.367432685401887</v>
       </c>
       <c r="R5">
-        <v>56.45510930954399</v>
+        <v>75.30689416861699</v>
       </c>
       <c r="S5">
-        <v>0.08419312782032534</v>
+        <v>0.07818273499591363</v>
       </c>
       <c r="T5">
-        <v>0.08419312782032534</v>
+        <v>0.07818273499591363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.245608</v>
+        <v>0.3074763333333333</v>
       </c>
       <c r="H6">
-        <v>0.7368239999999999</v>
+        <v>0.9224289999999999</v>
       </c>
       <c r="I6">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="J6">
-        <v>0.1506672452144055</v>
+        <v>0.1203396906281759</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N6">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O6">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P6">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q6">
-        <v>0.724493741576</v>
+        <v>0.1827097142065555</v>
       </c>
       <c r="R6">
-        <v>6.520443674184</v>
+        <v>1.644387427859</v>
       </c>
       <c r="S6">
-        <v>0.009724125139777178</v>
+        <v>0.001707183756842396</v>
       </c>
       <c r="T6">
-        <v>0.009724125139777178</v>
+        <v>0.001707183756842396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.9939020000000001</v>
       </c>
       <c r="I7">
-        <v>0.2032350688265964</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J7">
-        <v>0.2032350688265964</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N7">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O7">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P7">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q7">
-        <v>0.7975629546126666</v>
+        <v>0.5455159229924444</v>
       </c>
       <c r="R7">
-        <v>7.178066591514</v>
+        <v>4.909643306932</v>
       </c>
       <c r="S7">
-        <v>0.01070485710564337</v>
+        <v>0.005097134144595875</v>
       </c>
       <c r="T7">
-        <v>0.01070485710564337</v>
+        <v>0.005097134144595874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.9939020000000001</v>
       </c>
       <c r="I8">
-        <v>0.2032350688265964</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J8">
-        <v>0.2032350688265964</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>35.032622</v>
       </c>
       <c r="O8">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P8">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q8">
         <v>3.868777007893778</v>
@@ -948,10 +948,10 @@
         <v>34.81899307104401</v>
       </c>
       <c r="S8">
-        <v>0.05192656555019447</v>
+        <v>0.03614867055867033</v>
       </c>
       <c r="T8">
-        <v>0.05192656555019447</v>
+        <v>0.03614867055867032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.9939020000000001</v>
       </c>
       <c r="I9">
-        <v>0.2032350688265964</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J9">
-        <v>0.2032350688265964</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N9">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O9">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P9">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q9">
-        <v>1.037005873236667</v>
+        <v>0.2502389030151111</v>
       </c>
       <c r="R9">
-        <v>9.333052859130001</v>
+        <v>2.252150127136</v>
       </c>
       <c r="S9">
-        <v>0.0139186500908917</v>
+        <v>0.002338155868792495</v>
       </c>
       <c r="T9">
-        <v>0.0139186500908917</v>
+        <v>0.002338155868792495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.9939020000000001</v>
       </c>
       <c r="I10">
-        <v>0.2032350688265964</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J10">
-        <v>0.2032350688265964</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N10">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O10">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P10">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q10">
-        <v>8.461367233329112</v>
+        <v>9.015770407138444</v>
       </c>
       <c r="R10">
-        <v>76.15230509996201</v>
+        <v>81.141933664246</v>
       </c>
       <c r="S10">
-        <v>0.1135681222746233</v>
+        <v>0.08424060461879296</v>
       </c>
       <c r="T10">
-        <v>0.1135681222746233</v>
+        <v>0.08424060461879294</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.9939020000000001</v>
       </c>
       <c r="I11">
-        <v>0.2032350688265964</v>
+        <v>0.1296640274695671</v>
       </c>
       <c r="J11">
-        <v>0.2032350688265964</v>
+        <v>0.129664027469567</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N11">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O11">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P11">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q11">
-        <v>0.9772697126313334</v>
+        <v>0.1968666969157778</v>
       </c>
       <c r="R11">
-        <v>8.795427413682001</v>
+        <v>1.771800272242</v>
       </c>
       <c r="S11">
-        <v>0.01311687380524361</v>
+        <v>0.001839462278715404</v>
       </c>
       <c r="T11">
-        <v>0.01311687380524361</v>
+        <v>0.001839462278715403</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3515086666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H12">
-        <v>1.054526</v>
+        <v>1.44181</v>
       </c>
       <c r="I12">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J12">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N12">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O12">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P12">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q12">
-        <v>0.8462110673646666</v>
+        <v>0.7913560018288887</v>
       </c>
       <c r="R12">
-        <v>7.615899606281999</v>
+        <v>7.122204016459999</v>
       </c>
       <c r="S12">
-        <v>0.0113578100699925</v>
+        <v>0.007394188743980571</v>
       </c>
       <c r="T12">
-        <v>0.0113578100699925</v>
+        <v>0.00739418874398057</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3515086666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H13">
-        <v>1.054526</v>
+        <v>1.44181</v>
       </c>
       <c r="I13">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J13">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.032622</v>
       </c>
       <c r="O13">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P13">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q13">
-        <v>4.104756749685778</v>
+        <v>5.612264969535556</v>
       </c>
       <c r="R13">
-        <v>36.942810747172</v>
+        <v>50.51038472582</v>
       </c>
       <c r="S13">
-        <v>0.05509387591873683</v>
+        <v>0.05243928948547891</v>
       </c>
       <c r="T13">
-        <v>0.05509387591873684</v>
+        <v>0.0524392894854789</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3515086666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H14">
-        <v>1.054526</v>
+        <v>1.44181</v>
       </c>
       <c r="I14">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J14">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N14">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O14">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P14">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q14">
-        <v>1.100259035076667</v>
+        <v>0.3630105913422222</v>
       </c>
       <c r="R14">
-        <v>9.902331315690002</v>
+        <v>3.267095322079999</v>
       </c>
       <c r="S14">
-        <v>0.01476763142215999</v>
+        <v>0.003391860075926708</v>
       </c>
       <c r="T14">
-        <v>0.01476763142215999</v>
+        <v>0.003391860075926708</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3515086666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H15">
-        <v>1.054526</v>
+        <v>1.44181</v>
       </c>
       <c r="I15">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J15">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N15">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O15">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P15">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q15">
-        <v>8.977476394145112</v>
+        <v>13.07878234545888</v>
       </c>
       <c r="R15">
-        <v>80.797287547306</v>
+        <v>117.70904110913</v>
       </c>
       <c r="S15">
-        <v>0.1204953181599085</v>
+        <v>0.1222041470340354</v>
       </c>
       <c r="T15">
-        <v>0.1204953181599085</v>
+        <v>0.1222041470340354</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3515086666666667</v>
+        <v>0.4806033333333333</v>
       </c>
       <c r="H16">
-        <v>1.054526</v>
+        <v>1.44181</v>
       </c>
       <c r="I16">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="J16">
-        <v>0.2156315855984146</v>
+        <v>0.1880979125164216</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N16">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O16">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P16">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q16">
-        <v>1.036879210407333</v>
+        <v>0.2855858749455555</v>
       </c>
       <c r="R16">
-        <v>9.331912893666001</v>
+        <v>2.57027287451</v>
       </c>
       <c r="S16">
-        <v>0.01391695002761673</v>
+        <v>0.002668427177000002</v>
       </c>
       <c r="T16">
-        <v>0.01391695002761673</v>
+        <v>0.002668427177000002</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1730746666666667</v>
+        <v>0.225236</v>
       </c>
       <c r="H17">
-        <v>0.519224</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I17">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J17">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N17">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O17">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P17">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q17">
-        <v>0.4166545872186667</v>
+        <v>0.3708710449253333</v>
       </c>
       <c r="R17">
-        <v>3.749891284968</v>
+        <v>3.337839404328</v>
       </c>
       <c r="S17">
-        <v>0.005592320697433523</v>
+        <v>0.003465305753058742</v>
       </c>
       <c r="T17">
-        <v>0.005592320697433524</v>
+        <v>0.003465305753058742</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1730746666666667</v>
+        <v>0.225236</v>
       </c>
       <c r="H18">
-        <v>0.519224</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I18">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J18">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.032622</v>
       </c>
       <c r="O18">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P18">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q18">
-        <v>2.021086458369778</v>
+        <v>2.630202549597334</v>
       </c>
       <c r="R18">
-        <v>18.189778125328</v>
+        <v>23.671822946376</v>
       </c>
       <c r="S18">
-        <v>0.02712693914614738</v>
+        <v>0.02457580917017775</v>
       </c>
       <c r="T18">
-        <v>0.02712693914614739</v>
+        <v>0.02457580917017775</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1730746666666667</v>
+        <v>0.225236</v>
       </c>
       <c r="H19">
-        <v>0.519224</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I19">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J19">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N19">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O19">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P19">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q19">
-        <v>0.5417418795066667</v>
+        <v>0.1701258561493333</v>
       </c>
       <c r="R19">
-        <v>4.875676915560001</v>
+        <v>1.531132705344</v>
       </c>
       <c r="S19">
-        <v>0.007271237179111371</v>
+        <v>0.001589604031172127</v>
       </c>
       <c r="T19">
-        <v>0.007271237179111371</v>
+        <v>0.001589604031172127</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1730746666666667</v>
+        <v>0.225236</v>
       </c>
       <c r="H20">
-        <v>0.519224</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I20">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J20">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N20">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O20">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P20">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q20">
-        <v>4.420299929327111</v>
+        <v>6.129405303809333</v>
       </c>
       <c r="R20">
-        <v>39.782699363944</v>
+        <v>55.164647734284</v>
       </c>
       <c r="S20">
-        <v>0.05932908347092469</v>
+        <v>0.05727129079703568</v>
       </c>
       <c r="T20">
-        <v>0.05932908347092469</v>
+        <v>0.05727129079703567</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1730746666666667</v>
+        <v>0.225236</v>
       </c>
       <c r="H21">
-        <v>0.519224</v>
+        <v>0.6757080000000001</v>
       </c>
       <c r="I21">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622103</v>
       </c>
       <c r="J21">
-        <v>0.106171962000701</v>
+        <v>0.08815257507622101</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N21">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O21">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P21">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q21">
-        <v>0.5105351325093335</v>
+        <v>0.1338405617853334</v>
       </c>
       <c r="R21">
-        <v>4.594816192584</v>
+        <v>1.204565056068</v>
       </c>
       <c r="S21">
-        <v>0.006852381507084007</v>
+        <v>0.001250565324776717</v>
       </c>
       <c r="T21">
-        <v>0.006852381507084007</v>
+        <v>0.001250565324776717</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5286433333333334</v>
+        <v>1.210453666666667</v>
       </c>
       <c r="H22">
-        <v>1.58593</v>
+        <v>3.631361</v>
       </c>
       <c r="I22">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096146</v>
       </c>
       <c r="J22">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096145</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N22">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O22">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P22">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q22">
-        <v>1.272639572723333</v>
+        <v>1.993119289058444</v>
       </c>
       <c r="R22">
-        <v>11.45375615451</v>
+        <v>17.938073601526</v>
       </c>
       <c r="S22">
-        <v>0.01708131589387383</v>
+        <v>0.01862309779480655</v>
       </c>
       <c r="T22">
-        <v>0.01708131589387384</v>
+        <v>0.01862309779480655</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5286433333333334</v>
+        <v>1.210453666666667</v>
       </c>
       <c r="H23">
-        <v>1.58593</v>
+        <v>3.631361</v>
       </c>
       <c r="I23">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096146</v>
       </c>
       <c r="J23">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096145</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>35.032622</v>
       </c>
       <c r="O23">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P23">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q23">
-        <v>6.173254023162222</v>
+        <v>14.13512191761578</v>
       </c>
       <c r="R23">
-        <v>55.55928620846001</v>
+        <v>127.216097258542</v>
       </c>
       <c r="S23">
-        <v>0.08285716107123228</v>
+        <v>0.132074261314097</v>
       </c>
       <c r="T23">
-        <v>0.08285716107123231</v>
+        <v>0.132074261314097</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5286433333333334</v>
+        <v>1.210453666666667</v>
       </c>
       <c r="H24">
-        <v>1.58593</v>
+        <v>3.631361</v>
       </c>
       <c r="I24">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096146</v>
       </c>
       <c r="J24">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096145</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N24">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O24">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P24">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q24">
-        <v>1.654709140883334</v>
+        <v>0.9142830913831113</v>
       </c>
       <c r="R24">
-        <v>14.89238226795</v>
+        <v>8.228547822448</v>
       </c>
       <c r="S24">
-        <v>0.02220943789090661</v>
+        <v>0.008542781917990088</v>
       </c>
       <c r="T24">
-        <v>0.02220943789090661</v>
+        <v>0.008542781917990086</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5286433333333334</v>
+        <v>1.210453666666667</v>
       </c>
       <c r="H25">
-        <v>1.58593</v>
+        <v>3.631361</v>
       </c>
       <c r="I25">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096146</v>
       </c>
       <c r="J25">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096145</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N25">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O25">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P25">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q25">
-        <v>13.50146808875889</v>
+        <v>32.94038752456144</v>
       </c>
       <c r="R25">
-        <v>121.51321279883</v>
+        <v>296.463487721053</v>
       </c>
       <c r="S25">
-        <v>0.1812161482309053</v>
+        <v>0.3077849186631123</v>
       </c>
       <c r="T25">
-        <v>0.1812161482309053</v>
+        <v>0.3077849186631123</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5286433333333334</v>
+        <v>1.210453666666667</v>
       </c>
       <c r="H26">
-        <v>1.58593</v>
+        <v>3.631361</v>
       </c>
       <c r="I26">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096146</v>
       </c>
       <c r="J26">
-        <v>0.3242941383598826</v>
+        <v>0.4737457943096145</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N26">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O26">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P26">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q26">
-        <v>1.559390518736667</v>
+        <v>0.7192802161367778</v>
       </c>
       <c r="R26">
-        <v>14.03451466863</v>
+        <v>6.473521945231001</v>
       </c>
       <c r="S26">
-        <v>0.02093007527296454</v>
+        <v>0.006720734619608621</v>
       </c>
       <c r="T26">
-        <v>0.02093007527296454</v>
+        <v>0.00672073461960862</v>
       </c>
     </row>
   </sheetData>
